--- a/TestData/Data/Repports/Specialty.xlsx
+++ b/TestData/Data/Repports/Specialty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Message</x:t>
   </x:si>
@@ -22,46 +22,31 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Mise à jour de l'entity TDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Update_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity INFO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TDI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TRI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity NTIC_TDI_TS_CDS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CMOSW_FQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TMSIR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CMOSE_FQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CMOSO_FQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CMOSP_FQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity MIR_BP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity FO_ABD_FQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity NTIC_DAWM_FQ</x:t>
+    <x:t>Insertion de l'entity Specialty_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Add_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Specialty_8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -125,8 +110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B14" totalsRowShown="0">
-  <x:autoFilter ref="A1:B14"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
+  <x:autoFilter ref="A1:B9"/>
   <x:tableColumns count="2">
     <x:tableColumn id="1" name="Message"/>
     <x:tableColumn id="2" name="MessageType"/>
@@ -423,13 +408,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B14"/>
+  <x:dimension ref="A1:B9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="36.190625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="28.650625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -502,46 +487,6 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>

--- a/TestData/Data/Repports/Specialty.xlsx
+++ b/TestData/Data/Repports/Specialty.xlsx
@@ -22,31 +22,31 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Insertion de l'entity Specialty_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Add_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity Specialty_8</x:t>
+    <x:t>Mise à jour de l'entity Specialty_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Update_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity Specialty_8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -414,7 +414,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.650625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.560625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
